--- a/src/src/main/resources/Legacy_Data.xlsx
+++ b/src/src/main/resources/Legacy_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Documents/2Year/LAPR3/sem3pi2023_24_g104/src/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AEED9A-BC77-5340-AD49-E5609B284717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DBC186-8C86-7C42-8EC9-AB3D31127571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" firstSheet="1" activeTab="4" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="operacao" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">operacao!$A$1:$I$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">operacao!$A$1:$I$244</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="257">
   <si>
     <t>Espécie</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>há</t>
+  </si>
+  <si>
+    <t>idOperacao</t>
   </si>
 </sst>
 </file>
@@ -4722,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="C222" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K245" sqref="K245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4738,9 +4741,10 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
@@ -4771,8 +4775,11 @@
       <c r="J1" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>102</v>
       </c>
@@ -4797,8 +4804,11 @@
       <c r="J2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -4823,8 +4833,11 @@
       <c r="J3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>104</v>
       </c>
@@ -4849,8 +4862,11 @@
       <c r="J4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4875,8 +4891,11 @@
       <c r="J5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -4901,8 +4920,11 @@
       <c r="J6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>102</v>
       </c>
@@ -4927,8 +4949,11 @@
       <c r="J7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>102</v>
       </c>
@@ -4953,8 +4978,11 @@
       <c r="J8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>104</v>
       </c>
@@ -4979,8 +5007,11 @@
       <c r="J9">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>104</v>
       </c>
@@ -5005,8 +5036,11 @@
       <c r="J10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104</v>
       </c>
@@ -5031,8 +5065,11 @@
       <c r="J11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>102</v>
       </c>
@@ -5057,8 +5094,11 @@
       <c r="J12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>102</v>
       </c>
@@ -5083,8 +5123,11 @@
       <c r="J13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>104</v>
       </c>
@@ -5109,8 +5152,11 @@
       <c r="J14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>104</v>
       </c>
@@ -5135,8 +5181,11 @@
       <c r="J15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>104</v>
       </c>
@@ -5161,8 +5210,11 @@
       <c r="J16">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>104</v>
       </c>
@@ -5187,8 +5239,11 @@
       <c r="J17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>104</v>
       </c>
@@ -5213,8 +5268,11 @@
       <c r="J18">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>104</v>
       </c>
@@ -5239,8 +5297,11 @@
       <c r="J19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>102</v>
       </c>
@@ -5265,8 +5326,11 @@
       <c r="J20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>102</v>
       </c>
@@ -5291,8 +5355,11 @@
       <c r="J21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>102</v>
       </c>
@@ -5323,8 +5390,11 @@
       <c r="J22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>102</v>
       </c>
@@ -5355,8 +5425,11 @@
       <c r="J23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>104</v>
       </c>
@@ -5381,8 +5454,11 @@
       <c r="J24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>104</v>
       </c>
@@ -5407,8 +5483,11 @@
       <c r="J25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>104</v>
       </c>
@@ -5433,8 +5512,11 @@
       <c r="J26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>107</v>
       </c>
@@ -5459,8 +5541,11 @@
       <c r="J27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>107</v>
       </c>
@@ -5485,8 +5570,11 @@
       <c r="J28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>104</v>
       </c>
@@ -5517,8 +5605,11 @@
       <c r="J29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>104</v>
       </c>
@@ -5549,8 +5640,11 @@
       <c r="J30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>104</v>
       </c>
@@ -5581,8 +5675,11 @@
       <c r="J31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>102</v>
       </c>
@@ -5607,8 +5704,11 @@
       <c r="J32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>102</v>
       </c>
@@ -5633,8 +5733,11 @@
       <c r="J33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>104</v>
       </c>
@@ -5659,8 +5762,11 @@
       <c r="J34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>104</v>
       </c>
@@ -5685,8 +5791,11 @@
       <c r="J35">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>104</v>
       </c>
@@ -5711,8 +5820,11 @@
       <c r="J36">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>107</v>
       </c>
@@ -5737,8 +5849,11 @@
       <c r="J37">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>107</v>
       </c>
@@ -5763,8 +5878,11 @@
       <c r="J38">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>102</v>
       </c>
@@ -5789,8 +5907,11 @@
       <c r="J39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>102</v>
       </c>
@@ -5815,8 +5936,11 @@
       <c r="J40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>104</v>
       </c>
@@ -5841,8 +5965,11 @@
       <c r="J41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>104</v>
       </c>
@@ -5867,8 +5994,11 @@
       <c r="J42">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>104</v>
       </c>
@@ -5893,8 +6023,11 @@
       <c r="J43">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>107</v>
       </c>
@@ -5919,8 +6052,11 @@
       <c r="J44">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>107</v>
       </c>
@@ -5945,8 +6081,11 @@
       <c r="J45">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>104</v>
       </c>
@@ -5971,8 +6110,11 @@
       <c r="J46">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>104</v>
       </c>
@@ -5997,8 +6139,11 @@
       <c r="J47">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>104</v>
       </c>
@@ -6023,8 +6168,11 @@
       <c r="J48">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>104</v>
       </c>
@@ -6049,8 +6197,11 @@
       <c r="J49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>104</v>
       </c>
@@ -6075,8 +6226,11 @@
       <c r="J50">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>104</v>
       </c>
@@ -6101,8 +6255,11 @@
       <c r="J51">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>102</v>
       </c>
@@ -6127,8 +6284,11 @@
       <c r="J52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>102</v>
       </c>
@@ -6153,8 +6313,11 @@
       <c r="J53">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>104</v>
       </c>
@@ -6179,8 +6342,11 @@
       <c r="J54">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>107</v>
       </c>
@@ -6205,8 +6371,11 @@
       <c r="J55">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>107</v>
       </c>
@@ -6231,8 +6400,11 @@
       <c r="J56">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>104</v>
       </c>
@@ -6257,8 +6429,11 @@
       <c r="J57">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>104</v>
       </c>
@@ -6283,8 +6458,11 @@
       <c r="J58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>104</v>
       </c>
@@ -6309,8 +6487,11 @@
       <c r="J59">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>107</v>
       </c>
@@ -6338,8 +6519,11 @@
       <c r="J60">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>107</v>
       </c>
@@ -6367,8 +6551,11 @@
       <c r="J61">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>104</v>
       </c>
@@ -6399,8 +6586,11 @@
       <c r="J62">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>104</v>
       </c>
@@ -6431,8 +6621,11 @@
       <c r="J63">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>104</v>
       </c>
@@ -6463,8 +6656,11 @@
       <c r="J64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>102</v>
       </c>
@@ -6489,8 +6685,11 @@
       <c r="J65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>102</v>
       </c>
@@ -6515,8 +6714,11 @@
       <c r="J66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
@@ -6541,8 +6743,11 @@
       <c r="J67">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>107</v>
       </c>
@@ -6567,8 +6772,11 @@
       <c r="J68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>102</v>
       </c>
@@ -6593,8 +6801,11 @@
       <c r="J69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>102</v>
       </c>
@@ -6619,8 +6830,11 @@
       <c r="J70">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>104</v>
       </c>
@@ -6645,8 +6859,11 @@
       <c r="J71">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>104</v>
       </c>
@@ -6671,8 +6888,11 @@
       <c r="J72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>104</v>
       </c>
@@ -6697,8 +6917,11 @@
       <c r="J73">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>107</v>
       </c>
@@ -6723,8 +6946,11 @@
       <c r="J74">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>107</v>
       </c>
@@ -6749,8 +6975,11 @@
       <c r="J75">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>102</v>
       </c>
@@ -6775,8 +7004,11 @@
       <c r="J76">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>102</v>
       </c>
@@ -6801,8 +7033,11 @@
       <c r="J77">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>107</v>
       </c>
@@ -6827,8 +7062,11 @@
       <c r="J78">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>107</v>
       </c>
@@ -6853,8 +7091,11 @@
       <c r="J79">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>107</v>
       </c>
@@ -6882,8 +7123,11 @@
       <c r="J80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>107</v>
       </c>
@@ -6911,8 +7155,11 @@
       <c r="J81">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>106</v>
       </c>
@@ -6937,8 +7184,11 @@
       <c r="J82">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>103</v>
       </c>
@@ -6963,8 +7213,11 @@
       <c r="I83" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>103</v>
       </c>
@@ -6989,8 +7242,11 @@
       <c r="J84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>106</v>
       </c>
@@ -7015,8 +7271,11 @@
       <c r="J85">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>106</v>
       </c>
@@ -7041,8 +7300,11 @@
       <c r="J86">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>106</v>
       </c>
@@ -7067,8 +7329,11 @@
       <c r="J87">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>102</v>
       </c>
@@ -7093,8 +7358,11 @@
       <c r="J88">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>102</v>
       </c>
@@ -7119,8 +7387,11 @@
       <c r="J89">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>107</v>
       </c>
@@ -7145,8 +7416,11 @@
       <c r="J90">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>107</v>
       </c>
@@ -7171,8 +7445,11 @@
       <c r="J91">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>103</v>
       </c>
@@ -7197,8 +7474,11 @@
       <c r="J92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>106</v>
       </c>
@@ -7223,8 +7503,11 @@
       <c r="J93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>103</v>
       </c>
@@ -7249,8 +7532,11 @@
       <c r="J94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>102</v>
       </c>
@@ -7275,8 +7561,11 @@
       <c r="J95">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>102</v>
       </c>
@@ -7301,8 +7590,11 @@
       <c r="J96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>103</v>
       </c>
@@ -7327,8 +7619,11 @@
       <c r="J97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>107</v>
       </c>
@@ -7353,8 +7648,11 @@
       <c r="J98">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>107</v>
       </c>
@@ -7379,8 +7677,11 @@
       <c r="J99">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>106</v>
       </c>
@@ -7405,8 +7706,11 @@
       <c r="J100">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>103</v>
       </c>
@@ -7431,8 +7735,11 @@
       <c r="J101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>106</v>
       </c>
@@ -7457,8 +7764,11 @@
       <c r="J102">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -7483,8 +7793,11 @@
       <c r="J103">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>106</v>
       </c>
@@ -7509,8 +7822,11 @@
       <c r="J104">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>101</v>
       </c>
@@ -7535,8 +7851,11 @@
       <c r="J105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -7561,8 +7880,11 @@
       <c r="J106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>102</v>
       </c>
@@ -7587,8 +7909,11 @@
       <c r="J107">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>102</v>
       </c>
@@ -7613,8 +7938,11 @@
       <c r="J108">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -7639,8 +7967,11 @@
       <c r="J109">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>104</v>
       </c>
@@ -7665,8 +7996,11 @@
       <c r="J110">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>104</v>
       </c>
@@ -7691,8 +8025,11 @@
       <c r="J111">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>102</v>
       </c>
@@ -7723,8 +8060,11 @@
       <c r="J112">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>102</v>
       </c>
@@ -7755,8 +8095,11 @@
       <c r="J113">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>104</v>
       </c>
@@ -7781,8 +8124,11 @@
       <c r="J114">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>104</v>
       </c>
@@ -7807,8 +8153,11 @@
       <c r="J115">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>107</v>
       </c>
@@ -7833,8 +8182,11 @@
       <c r="J116">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>106</v>
       </c>
@@ -7859,8 +8211,11 @@
       <c r="J117">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>107</v>
       </c>
@@ -7885,8 +8240,11 @@
       <c r="J118">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>106</v>
       </c>
@@ -7911,8 +8269,11 @@
       <c r="J119">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>107</v>
       </c>
@@ -7940,8 +8301,11 @@
       <c r="J120">
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>107</v>
       </c>
@@ -7969,8 +8333,11 @@
       <c r="J121">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>106</v>
       </c>
@@ -7995,8 +8362,11 @@
       <c r="J122">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>103</v>
       </c>
@@ -8021,8 +8391,11 @@
       <c r="J123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>101</v>
       </c>
@@ -8047,8 +8420,11 @@
       <c r="J124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>103</v>
       </c>
@@ -8073,8 +8449,11 @@
       <c r="J125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>101</v>
       </c>
@@ -8099,8 +8478,11 @@
       <c r="J126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>104</v>
       </c>
@@ -8131,8 +8513,11 @@
       <c r="J127">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>104</v>
       </c>
@@ -8163,8 +8548,11 @@
       <c r="J128">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>104</v>
       </c>
@@ -8195,8 +8583,11 @@
       <c r="J129">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>106</v>
       </c>
@@ -8221,8 +8612,11 @@
       <c r="J130">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>106</v>
       </c>
@@ -8247,8 +8641,11 @@
       <c r="J131">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>106</v>
       </c>
@@ -8273,8 +8670,11 @@
       <c r="J132">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>106</v>
       </c>
@@ -8299,8 +8699,11 @@
       <c r="J133">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>102</v>
       </c>
@@ -8325,8 +8728,11 @@
       <c r="J134">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>102</v>
       </c>
@@ -8351,8 +8757,11 @@
       <c r="J135">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>104</v>
       </c>
@@ -8377,8 +8786,11 @@
       <c r="J136">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>104</v>
       </c>
@@ -8403,8 +8815,11 @@
       <c r="J137">
         <v>23</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>104</v>
       </c>
@@ -8429,8 +8844,11 @@
       <c r="J138">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>106</v>
       </c>
@@ -8455,8 +8873,11 @@
       <c r="J139">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>107</v>
       </c>
@@ -8481,8 +8902,11 @@
       <c r="J140">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>107</v>
       </c>
@@ -8507,8 +8931,11 @@
       <c r="J141">
         <v>27</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>103</v>
       </c>
@@ -8533,8 +8960,11 @@
       <c r="J142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>107</v>
       </c>
@@ -8559,8 +8989,11 @@
       <c r="J143">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>107</v>
       </c>
@@ -8585,8 +9018,11 @@
       <c r="J144">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>103</v>
       </c>
@@ -8611,8 +9047,11 @@
       <c r="J145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>104</v>
       </c>
@@ -8637,8 +9076,11 @@
       <c r="J146">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>104</v>
       </c>
@@ -8663,8 +9105,11 @@
       <c r="J147">
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>104</v>
       </c>
@@ -8689,8 +9134,11 @@
       <c r="J148">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>106</v>
       </c>
@@ -8715,8 +9163,11 @@
       <c r="J149">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>103</v>
       </c>
@@ -8741,8 +9192,11 @@
       <c r="J150">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>102</v>
       </c>
@@ -8767,8 +9221,11 @@
       <c r="J151">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>102</v>
       </c>
@@ -8793,8 +9250,11 @@
       <c r="J152">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>101</v>
       </c>
@@ -8819,8 +9279,11 @@
       <c r="J153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>106</v>
       </c>
@@ -8845,8 +9308,11 @@
       <c r="J154">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>104</v>
       </c>
@@ -8871,8 +9337,11 @@
       <c r="J155">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>103</v>
       </c>
@@ -8897,8 +9366,11 @@
       <c r="J156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>106</v>
       </c>
@@ -8923,8 +9395,11 @@
       <c r="J157">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>104</v>
       </c>
@@ -8949,8 +9424,11 @@
       <c r="J158">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>106</v>
       </c>
@@ -8975,8 +9453,11 @@
       <c r="J159">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>104</v>
       </c>
@@ -9001,8 +9482,11 @@
       <c r="J160">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>106</v>
       </c>
@@ -9027,8 +9511,11 @@
       <c r="J161">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>104</v>
       </c>
@@ -9053,13 +9540,16 @@
       <c r="J162">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C163" t="s">
         <v>215</v>
@@ -9068,42 +9558,51 @@
         <v>207</v>
       </c>
       <c r="F163" s="1">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="G163">
-        <v>36</v>
+        <v>1.3</v>
+      </c>
+      <c r="H163" t="s">
+        <v>180</v>
       </c>
       <c r="J163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C164" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F164" s="1">
-        <v>44475</v>
+        <v>44481</v>
       </c>
       <c r="G164">
-        <v>1.3</v>
+        <v>950</v>
       </c>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="J164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K164">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>104</v>
       </c>
@@ -9117,10 +9616,10 @@
         <v>205</v>
       </c>
       <c r="F165" s="1">
-        <v>44481</v>
+        <v>44503</v>
       </c>
       <c r="G165">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="H165" t="s">
         <v>219</v>
@@ -9128,34 +9627,40 @@
       <c r="J165">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F166" s="1">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="G166">
-        <v>750</v>
+        <v>210</v>
       </c>
       <c r="H166" t="s">
         <v>219</v>
       </c>
       <c r="J166">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K166">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>102</v>
       </c>
@@ -9166,74 +9671,83 @@
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F167" s="1">
         <v>44510</v>
       </c>
       <c r="G167">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="H167" t="s">
         <v>219</v>
       </c>
       <c r="J167">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K167">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F168" s="1">
-        <v>44510</v>
+        <v>44515</v>
       </c>
       <c r="G168">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="H168" t="s">
         <v>219</v>
       </c>
       <c r="J168">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K168">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B169" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F169" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="G169">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="H169" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J169">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K169">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>102</v>
       </c>
@@ -9244,48 +9758,54 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F170" s="1">
         <v>44517</v>
       </c>
       <c r="G170">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
         <v>202</v>
       </c>
       <c r="J170">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K170">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F171" s="1">
-        <v>44517</v>
+        <v>44528</v>
       </c>
       <c r="G171">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H171" t="s">
         <v>202</v>
       </c>
       <c r="J171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K171">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>104</v>
       </c>
@@ -9296,178 +9816,202 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F172" s="1">
-        <v>44528</v>
+        <v>44533</v>
       </c>
       <c r="G172">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H172" t="s">
         <v>202</v>
       </c>
       <c r="J172">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K172">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="F173" s="1">
-        <v>44533</v>
+        <v>44546</v>
       </c>
       <c r="G173">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="H173" t="s">
         <v>202</v>
       </c>
       <c r="J173">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K173">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="F174" s="1">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="G174">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="H174" t="s">
         <v>202</v>
       </c>
       <c r="J174">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K174">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="F175" s="1">
         <v>44548</v>
       </c>
       <c r="G175">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J175">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K175">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F176" s="1">
         <v>44548</v>
       </c>
       <c r="G176">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="H176" t="s">
+        <v>202</v>
+      </c>
+      <c r="J176">
+        <v>27</v>
+      </c>
+      <c r="K176">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>106</v>
+      </c>
+      <c r="B177" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>228</v>
+      </c>
+      <c r="F177" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G177">
+        <v>2900</v>
+      </c>
+      <c r="H177" t="s">
         <v>219</v>
       </c>
-      <c r="J176">
+      <c r="J177">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="K177">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>107</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>247</v>
       </c>
-      <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" t="s">
-        <v>252</v>
-      </c>
-      <c r="F177" s="1">
-        <v>44548</v>
-      </c>
-      <c r="G177">
-        <v>700</v>
-      </c>
-      <c r="H177" t="s">
-        <v>202</v>
-      </c>
-      <c r="J177">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>106</v>
-      </c>
-      <c r="B178" t="s">
-        <v>221</v>
-      </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="E178" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F178" s="1">
-        <v>44565</v>
+        <v>44581</v>
       </c>
       <c r="G178">
-        <v>2900</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>219</v>
       </c>
+      <c r="I178" t="s">
+        <v>144</v>
+      </c>
       <c r="J178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K178">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>107</v>
       </c>
@@ -9478,13 +10022,13 @@
         <v>253</v>
       </c>
       <c r="E179" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F179" s="1">
         <v>44581</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="s">
         <v>219</v>
@@ -9493,70 +10037,76 @@
         <v>144</v>
       </c>
       <c r="J179">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K179">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E180" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="F180" s="1">
-        <v>44581</v>
+        <v>44626</v>
       </c>
       <c r="G180">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="s">
         <v>219</v>
       </c>
-      <c r="I180" t="s">
-        <v>144</v>
-      </c>
       <c r="J180">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K180">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B181" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="F181" s="1">
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="G181">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="J181">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K181">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
         <v>216</v>
@@ -9565,7 +10115,7 @@
         <v>207</v>
       </c>
       <c r="F182" s="1">
-        <v>44639</v>
+        <v>44656</v>
       </c>
       <c r="G182">
         <v>1.3</v>
@@ -9576,112 +10126,133 @@
       <c r="J182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E183" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="F183" s="1">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="G183">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="s">
         <v>180</v>
       </c>
       <c r="J183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K183">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C184" t="s">
         <v>215</v>
       </c>
       <c r="E184" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F184" s="1">
-        <v>44659</v>
+        <v>44666</v>
       </c>
       <c r="G184">
-        <v>1.2</v>
+        <v>30</v>
       </c>
       <c r="H184" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="J184">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="F185" s="1">
-        <v>44666</v>
+        <v>44686</v>
       </c>
       <c r="G185">
-        <v>30</v>
+        <v>2250</v>
       </c>
       <c r="H185" t="s">
         <v>219</v>
       </c>
       <c r="J185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K185">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>217</v>
+      </c>
+      <c r="D186" t="s">
+        <v>218</v>
       </c>
       <c r="E186" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="F186" s="1">
-        <v>44686</v>
+        <v>44694</v>
       </c>
       <c r="G186">
-        <v>2250</v>
+        <v>10</v>
       </c>
       <c r="H186" t="s">
         <v>219</v>
       </c>
+      <c r="I186" t="s">
+        <v>161</v>
+      </c>
       <c r="J186">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K186">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>104</v>
       </c>
@@ -9710,10 +10281,13 @@
         <v>161</v>
       </c>
       <c r="J187">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>104</v>
       </c>
@@ -9742,42 +10316,42 @@
         <v>161</v>
       </c>
       <c r="J188">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K188">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
+        <v>106</v>
+      </c>
+      <c r="B189" t="s">
+        <v>221</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
         <v>104</v>
       </c>
-      <c r="B189" t="s">
-        <v>183</v>
-      </c>
-      <c r="C189" t="s">
-        <v>217</v>
-      </c>
-      <c r="D189" t="s">
-        <v>218</v>
-      </c>
-      <c r="E189" t="s">
-        <v>48</v>
-      </c>
       <c r="F189" s="1">
-        <v>44694</v>
+        <v>44696</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="H189" t="s">
         <v>219</v>
       </c>
-      <c r="I189" t="s">
-        <v>161</v>
-      </c>
       <c r="J189">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K189">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>106</v>
       </c>
@@ -9785,51 +10359,57 @@
         <v>221</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="E190" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="F190" s="1">
-        <v>44696</v>
+        <v>44711</v>
       </c>
       <c r="G190">
-        <v>1300</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="s">
         <v>219</v>
       </c>
       <c r="J190">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K190">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="F191" s="1">
-        <v>44711</v>
+        <v>44717</v>
       </c>
       <c r="G191">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="J191">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K191">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>104</v>
       </c>
@@ -9852,10 +10432,13 @@
         <v>194</v>
       </c>
       <c r="J192">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K192">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>104</v>
       </c>
@@ -9878,24 +10461,27 @@
         <v>194</v>
       </c>
       <c r="J193">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K193">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C194" t="s">
         <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="F194" s="1">
-        <v>44717</v>
+        <v>44742</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -9904,36 +10490,42 @@
         <v>194</v>
       </c>
       <c r="J194">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K194">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B195" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C195" t="s">
         <v>192</v>
       </c>
       <c r="E195" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="F195" s="1">
-        <v>44742</v>
+        <v>44744</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H195" t="s">
         <v>194</v>
       </c>
       <c r="J195">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K195">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>104</v>
       </c>
@@ -9956,10 +10548,13 @@
         <v>194</v>
       </c>
       <c r="J196">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K196">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>104</v>
       </c>
@@ -9982,36 +10577,42 @@
         <v>194</v>
       </c>
       <c r="J197">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K197">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
         <v>192</v>
       </c>
       <c r="E198" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="F198" s="1">
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="G198">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="s">
         <v>194</v>
       </c>
       <c r="J198">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K198">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>102</v>
       </c>
@@ -10022,126 +10623,141 @@
         <v>192</v>
       </c>
       <c r="E199" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F199" s="1">
         <v>44745</v>
       </c>
       <c r="G199">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="s">
         <v>194</v>
       </c>
       <c r="J199">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K199">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
         <v>192</v>
       </c>
       <c r="E200" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F200" s="1">
-        <v>44745</v>
+        <v>44752</v>
       </c>
       <c r="G200">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H200" t="s">
         <v>194</v>
       </c>
       <c r="J200">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K200">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="C201" t="s">
         <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F201" s="1">
-        <v>44752</v>
+        <v>44754</v>
       </c>
       <c r="G201">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H201" t="s">
         <v>194</v>
       </c>
       <c r="J201">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K201">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B202" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C202" t="s">
         <v>192</v>
       </c>
       <c r="E202" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F202" s="1">
-        <v>44754</v>
+        <v>44757</v>
       </c>
       <c r="G202">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>194</v>
       </c>
       <c r="J202">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K202">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B203" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C203" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="F203" s="1">
         <v>44757</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="H203" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J203">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K203">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>107</v>
       </c>
@@ -10155,10 +10771,10 @@
         <v>248</v>
       </c>
       <c r="F204" s="1">
-        <v>44757</v>
+        <v>44762</v>
       </c>
       <c r="G204">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H204" t="s">
         <v>219</v>
@@ -10166,60 +10782,69 @@
       <c r="J204">
         <v>26</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="E205" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F205" s="1">
-        <v>44762</v>
+        <v>44766</v>
       </c>
       <c r="G205">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H205" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="J205">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K205">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B206" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C206" t="s">
         <v>192</v>
       </c>
       <c r="E206" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="F206" s="1">
-        <v>44766</v>
+        <v>44772</v>
       </c>
       <c r="G206">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H206" t="s">
         <v>194</v>
       </c>
       <c r="J206">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K206">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>104</v>
       </c>
@@ -10242,10 +10867,13 @@
         <v>194</v>
       </c>
       <c r="J207">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K207">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>104</v>
       </c>
@@ -10268,88 +10896,100 @@
         <v>194</v>
       </c>
       <c r="J208">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K208">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B209" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C209" t="s">
         <v>192</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="F209" s="1">
         <v>44772</v>
       </c>
       <c r="G209">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="s">
         <v>194</v>
       </c>
       <c r="J209">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K209">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B210" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C210" t="s">
         <v>192</v>
       </c>
       <c r="E210" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F210" s="1">
-        <v>44772</v>
+        <v>44780</v>
       </c>
       <c r="G210">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="H210" t="s">
         <v>194</v>
       </c>
       <c r="J210">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K210">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
         <v>192</v>
       </c>
       <c r="E211" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F211" s="1">
-        <v>44780</v>
+        <v>44783</v>
       </c>
       <c r="G211">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="s">
         <v>194</v>
       </c>
       <c r="J211">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K211">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>102</v>
       </c>
@@ -10360,48 +11000,54 @@
         <v>192</v>
       </c>
       <c r="E212" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F212" s="1">
         <v>44783</v>
       </c>
       <c r="G212">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="s">
         <v>194</v>
       </c>
       <c r="J212">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K212">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C213" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F213" s="1">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="G213">
-        <v>1.5</v>
+        <v>1200</v>
       </c>
       <c r="H213" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J213">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K213">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>107</v>
       </c>
@@ -10418,7 +11064,7 @@
         <v>44785</v>
       </c>
       <c r="G214">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H214" t="s">
         <v>219</v>
@@ -10426,138 +11072,156 @@
       <c r="J214">
         <v>27</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="F215" s="1">
-        <v>44785</v>
+        <v>44790</v>
       </c>
       <c r="G215">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="H215" t="s">
         <v>219</v>
       </c>
       <c r="J215">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K215">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B216" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="E216" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F216" s="1">
         <v>44790</v>
       </c>
       <c r="G216">
-        <v>3500</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
+        <v>194</v>
+      </c>
+      <c r="J216">
+        <v>20</v>
+      </c>
+      <c r="K216">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>103</v>
+      </c>
+      <c r="B217" t="s">
+        <v>182</v>
+      </c>
+      <c r="C217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>240</v>
+      </c>
+      <c r="F217" s="1">
+        <v>44791</v>
+      </c>
+      <c r="G217">
+        <v>3300</v>
+      </c>
+      <c r="H217" t="s">
         <v>219</v>
       </c>
-      <c r="J216">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>106</v>
-      </c>
-      <c r="B217" t="s">
-        <v>221</v>
-      </c>
-      <c r="C217" t="s">
-        <v>192</v>
-      </c>
-      <c r="E217" t="s">
-        <v>223</v>
-      </c>
-      <c r="F217" s="1">
-        <v>44790</v>
-      </c>
-      <c r="G217">
-        <v>3</v>
-      </c>
-      <c r="H217" t="s">
-        <v>194</v>
-      </c>
       <c r="J217">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K217">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F218" s="1">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="G218">
-        <v>3300</v>
+        <v>950</v>
       </c>
       <c r="H218" t="s">
         <v>219</v>
       </c>
       <c r="J218">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K218">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B219" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F219" s="1">
-        <v>44793</v>
+        <v>44797</v>
       </c>
       <c r="G219">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="H219" t="s">
         <v>219</v>
       </c>
       <c r="J219">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K219">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>106</v>
       </c>
@@ -10571,10 +11235,10 @@
         <v>223</v>
       </c>
       <c r="F220" s="1">
-        <v>44797</v>
+        <v>44809</v>
       </c>
       <c r="G220">
-        <v>650</v>
+        <v>1900</v>
       </c>
       <c r="H220" t="s">
         <v>219</v>
@@ -10582,34 +11246,40 @@
       <c r="J220">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F221" s="1">
-        <v>44809</v>
+        <v>44811</v>
       </c>
       <c r="G221">
-        <v>1900</v>
+        <v>830</v>
       </c>
       <c r="H221" t="s">
         <v>219</v>
       </c>
       <c r="J221">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K221">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>104</v>
       </c>
@@ -10620,22 +11290,25 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F222" s="1">
-        <v>44811</v>
+        <v>44815</v>
       </c>
       <c r="G222">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="H222" t="s">
         <v>219</v>
       </c>
       <c r="J222">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K222">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>104</v>
       </c>
@@ -10649,10 +11322,10 @@
         <v>204</v>
       </c>
       <c r="F223" s="1">
-        <v>44815</v>
+        <v>44824</v>
       </c>
       <c r="G223">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="H223" t="s">
         <v>219</v>
@@ -10660,86 +11333,98 @@
       <c r="J223">
         <v>22</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B224" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F224" s="1">
         <v>44824</v>
       </c>
       <c r="G224">
-        <v>1150</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="s">
         <v>219</v>
       </c>
       <c r="J224">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K224">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
         <v>215</v>
       </c>
       <c r="E225" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="F225" s="1">
-        <v>44824</v>
+        <v>44846</v>
       </c>
       <c r="G225">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="s">
+        <v>180</v>
+      </c>
+      <c r="J225">
+        <v>3</v>
+      </c>
+      <c r="K225">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>104</v>
+      </c>
+      <c r="B226" t="s">
+        <v>183</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>205</v>
+      </c>
+      <c r="F226" s="1">
+        <v>44851</v>
+      </c>
+      <c r="G226">
+        <v>850</v>
+      </c>
+      <c r="H226" t="s">
         <v>219</v>
       </c>
-      <c r="J225">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>103</v>
-      </c>
-      <c r="B226" t="s">
-        <v>182</v>
-      </c>
-      <c r="C226" t="s">
-        <v>215</v>
-      </c>
-      <c r="E226" t="s">
-        <v>207</v>
-      </c>
-      <c r="F226" s="1">
-        <v>44846</v>
-      </c>
-      <c r="G226">
-        <v>1.3</v>
-      </c>
-      <c r="H226" t="s">
-        <v>180</v>
-      </c>
       <c r="J226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K226">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>104</v>
       </c>
@@ -10753,10 +11438,10 @@
         <v>205</v>
       </c>
       <c r="F227" s="1">
-        <v>44851</v>
+        <v>44871</v>
       </c>
       <c r="G227">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="H227" t="s">
         <v>219</v>
@@ -10764,34 +11449,40 @@
       <c r="J227">
         <v>23</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B228" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F228" s="1">
-        <v>44871</v>
+        <v>44875</v>
       </c>
       <c r="G228">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="H228" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J228">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K228">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>102</v>
       </c>
@@ -10802,22 +11493,25 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F229" s="1">
         <v>44875</v>
       </c>
       <c r="G229">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H229" t="s">
         <v>202</v>
       </c>
       <c r="J229">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K229">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>102</v>
       </c>
@@ -10825,25 +11519,28 @@
         <v>200</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F230" s="1">
-        <v>44875</v>
+        <v>44877</v>
       </c>
       <c r="G230">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="H230" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J230">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K230">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>102</v>
       </c>
@@ -10854,74 +11551,83 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F231" s="1">
         <v>44877</v>
       </c>
       <c r="G231">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H231" t="s">
         <v>219</v>
       </c>
       <c r="J231">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K231">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B232" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F232" s="1">
-        <v>44877</v>
+        <v>44880</v>
       </c>
       <c r="G232">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H232" t="s">
         <v>219</v>
       </c>
       <c r="J232">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K232">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="F233" s="1">
-        <v>44880</v>
+        <v>44899</v>
       </c>
       <c r="G233">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H233" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J233">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K233">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>104</v>
       </c>
@@ -10932,48 +11638,60 @@
         <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F234" s="1">
-        <v>44899</v>
+        <v>44902</v>
       </c>
       <c r="G234">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H234" t="s">
         <v>202</v>
       </c>
       <c r="J234">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="K234">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="D235" t="s">
+        <v>229</v>
       </c>
       <c r="E235" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F235" s="1">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="G235">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="I235" t="s">
+        <v>153</v>
       </c>
       <c r="J235">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K235">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>102</v>
       </c>
@@ -10987,13 +11705,13 @@
         <v>229</v>
       </c>
       <c r="E236" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F236" s="1">
         <v>44906</v>
       </c>
       <c r="G236">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H236" t="s">
         <v>219</v>
@@ -11002,172 +11720,190 @@
         <v>153</v>
       </c>
       <c r="J236">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K236">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B237" t="s">
+        <v>247</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>248</v>
+      </c>
+      <c r="F237" s="1">
+        <v>44911</v>
+      </c>
+      <c r="G237">
+        <v>500</v>
+      </c>
+      <c r="H237" t="s">
+        <v>202</v>
+      </c>
+      <c r="J237">
+        <v>26</v>
+      </c>
+      <c r="K237">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>106</v>
+      </c>
+      <c r="B238" t="s">
+        <v>221</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" t="s">
+        <v>239</v>
+      </c>
+      <c r="F238" s="1">
+        <v>44913</v>
+      </c>
+      <c r="G238">
         <v>200</v>
       </c>
-      <c r="C237" t="s">
-        <v>217</v>
-      </c>
-      <c r="D237" t="s">
-        <v>229</v>
-      </c>
-      <c r="E237" t="s">
-        <v>203</v>
-      </c>
-      <c r="F237" s="1">
-        <v>44906</v>
-      </c>
-      <c r="G237">
-        <v>10</v>
-      </c>
-      <c r="H237" t="s">
+      <c r="H238" t="s">
         <v>219</v>
       </c>
-      <c r="I237" t="s">
-        <v>153</v>
-      </c>
-      <c r="J237">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="J238">
+        <v>21</v>
+      </c>
+      <c r="K238">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239">
         <v>107</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>247</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>5</v>
       </c>
-      <c r="E238" t="s">
-        <v>248</v>
-      </c>
-      <c r="F238" s="1">
-        <v>44911</v>
-      </c>
-      <c r="G238">
-        <v>500</v>
-      </c>
-      <c r="H238" t="s">
-        <v>202</v>
-      </c>
-      <c r="J238">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>106</v>
-      </c>
-      <c r="B239" t="s">
-        <v>221</v>
-      </c>
-      <c r="C239" t="s">
-        <v>7</v>
-      </c>
       <c r="E239" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F239" s="1">
         <v>44913</v>
       </c>
       <c r="G239">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H239" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J239">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K239">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F240" s="1">
-        <v>44913</v>
+        <v>44938</v>
       </c>
       <c r="G240">
-        <v>700</v>
+        <v>60</v>
       </c>
       <c r="H240" t="s">
         <v>202</v>
       </c>
       <c r="J240">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="K240">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B241" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F241" s="1">
-        <v>44938</v>
+        <v>44940</v>
       </c>
       <c r="G241">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="H241" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J241">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K241">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B242" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="E242" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F242" s="1">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="G242">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="H242" t="s">
         <v>219</v>
       </c>
+      <c r="I242" t="s">
+        <v>144</v>
+      </c>
       <c r="J242">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K242">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>107</v>
       </c>
@@ -11178,13 +11914,13 @@
         <v>253</v>
       </c>
       <c r="E243" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F243" s="1">
         <v>44946</v>
       </c>
       <c r="G243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H243" t="s">
         <v>219</v>
@@ -11193,74 +11929,51 @@
         <v>144</v>
       </c>
       <c r="J243">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K243">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="C244" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="E244" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="F244" s="1">
-        <v>44946</v>
+        <v>45005</v>
       </c>
       <c r="G244">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="s">
-        <v>219</v>
-      </c>
-      <c r="I244" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="J244">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>103</v>
-      </c>
-      <c r="B245" t="s">
-        <v>182</v>
-      </c>
-      <c r="C245" t="s">
-        <v>216</v>
-      </c>
-      <c r="E245" t="s">
-        <v>207</v>
-      </c>
-      <c r="F245" s="1">
-        <v>45005</v>
-      </c>
-      <c r="G245">
-        <v>1.3</v>
-      </c>
-      <c r="H245" t="s">
-        <v>180</v>
-      </c>
-      <c r="J245">
         <v>3</v>
       </c>
+      <c r="K244">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I245" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I179">
-      <sortCondition ref="F2:F179"/>
-      <sortCondition ref="B2:B179"/>
+  <autoFilter ref="A1:I244" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I178">
+      <sortCondition ref="F2:F178"/>
+      <sortCondition ref="B2:B178"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I245">
-    <sortCondition ref="F2:F245"/>
-    <sortCondition ref="A2:A245"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I244">
+    <sortCondition ref="F2:F244"/>
+    <sortCondition ref="A2:A244"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/src/main/resources/Legacy_Data.xlsx
+++ b/src/src/main/resources/Legacy_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Documents/2Year/LAPR3/sem3pi2023_24_g104/src/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C3BF85-66C0-164E-B8E2-6637E070441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650F685-5E0F-9642-81B4-8D7727A7897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="259">
   <si>
     <t>Espécie</t>
   </si>
@@ -817,6 +839,9 @@
   </si>
   <si>
     <t>Semeadura</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -876,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -887,7 +912,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA74F46-7FB7-481B-9DAE-CE325D568C4A}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -3952,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DE277-EC3F-46EA-8D39-A978B7AEA5AE}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3966,7 +3990,7 @@
     <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>176</v>
       </c>
@@ -3994,8 +4018,11 @@
       <c r="I1" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4023,8 +4050,12 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="str">
+        <f>IF(D2=$D$12,1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -4052,8 +4083,12 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J27" si="0">IF(D3=$D$12,1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -4081,8 +4116,12 @@
       <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>101</v>
       </c>
@@ -4110,8 +4149,12 @@
       <c r="I5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103</v>
       </c>
@@ -4139,8 +4182,12 @@
       <c r="I6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>103</v>
       </c>
@@ -4168,8 +4215,12 @@
       <c r="I7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>103</v>
       </c>
@@ -4197,8 +4248,12 @@
       <c r="I8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>103</v>
       </c>
@@ -4226,8 +4281,12 @@
       <c r="I9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103</v>
       </c>
@@ -4255,8 +4314,12 @@
       <c r="I10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>103</v>
       </c>
@@ -4284,8 +4347,12 @@
       <c r="I11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>102</v>
       </c>
@@ -4310,8 +4377,16 @@
       <c r="I12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IF(_xlfn.IFS(H12="un",G12*6*7.5),G12*6*7.5," ")</f>
+        <v>1350</v>
+      </c>
+      <c r="K12">
+        <f>J12/10000</f>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4336,8 +4411,16 @@
       <c r="I13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IF(_xlfn.IFS(H13="un",G13*5*5),G13*6*7.5," ")</f>
+        <v>900</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K28" si="1">J13/10000</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>106</v>
       </c>
@@ -4365,8 +4448,12 @@
       <c r="I14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4394,8 +4481,12 @@
       <c r="I15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>106</v>
       </c>
@@ -4423,8 +4514,12 @@
       <c r="I16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>106</v>
       </c>
@@ -4452,8 +4547,12 @@
       <c r="I17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>106</v>
       </c>
@@ -4481,8 +4580,12 @@
       <c r="I18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>106</v>
       </c>
@@ -4510,8 +4613,12 @@
       <c r="I19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>106</v>
       </c>
@@ -4539,8 +4646,12 @@
       <c r="I20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>106</v>
       </c>
@@ -4568,8 +4679,12 @@
       <c r="I21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>106</v>
       </c>
@@ -4597,8 +4712,12 @@
       <c r="I22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>104</v>
       </c>
@@ -4623,8 +4742,16 @@
       <c r="I23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">IF(_xlfn.IFS(H23="un",G23*5*5),G23*5*5," ")</f>
+        <v>2250</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>104</v>
       </c>
@@ -4649,8 +4776,16 @@
       <c r="I24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">IF(_xlfn.IFS(H24="un",G24*5*5),G24*5*5," ")</f>
+        <v>1500</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>104</v>
       </c>
@@ -4675,8 +4810,16 @@
       <c r="I25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">IF(_xlfn.IFS(H25="un",G25*5*5),G25*5*5," ")</f>
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>104</v>
       </c>
@@ -4701,8 +4844,16 @@
       <c r="I26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">IF(_xlfn.IFS(H26="un",G26*5*5),G26*5*5," ")</f>
+        <v>750</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>107</v>
       </c>
@@ -4727,8 +4878,15 @@
       <c r="I27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>107</v>
       </c>
@@ -4752,6 +4910,13 @@
       </c>
       <c r="I28">
         <v>27</v>
+      </c>
+      <c r="J28">
+        <v>1400</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4768,14 +4933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -4794,7 +4959,7 @@
       <c r="A1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4832,7 +4997,7 @@
       <c r="A2">
         <v>102</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>181</v>
       </c>
       <c r="C2" t="s">
@@ -4873,7 +5038,7 @@
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>181</v>
       </c>
       <c r="C3" t="s">
@@ -4914,7 +5079,7 @@
       <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>183</v>
       </c>
       <c r="C4" t="s">
@@ -4955,7 +5120,7 @@
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>183</v>
       </c>
       <c r="C5" t="s">
@@ -4996,7 +5161,7 @@
       <c r="A6">
         <v>104</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>183</v>
       </c>
       <c r="C6" t="s">
@@ -5037,7 +5202,7 @@
       <c r="A7">
         <v>102</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>181</v>
       </c>
       <c r="C7" t="s">
@@ -5078,7 +5243,7 @@
       <c r="A8">
         <v>102</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>181</v>
       </c>
       <c r="C8" t="s">
@@ -5119,7 +5284,7 @@
       <c r="A9">
         <v>102</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>181</v>
       </c>
       <c r="C9" t="s">
@@ -5174,7 +5339,7 @@
       <c r="A10">
         <v>102</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>181</v>
       </c>
       <c r="C10" t="s">
@@ -5229,7 +5394,7 @@
       <c r="A11">
         <v>104</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>183</v>
       </c>
       <c r="C11" t="s">
@@ -5270,7 +5435,7 @@
       <c r="A12">
         <v>104</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>183</v>
       </c>
       <c r="C12" t="s">
@@ -5311,7 +5476,7 @@
       <c r="A13">
         <v>104</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>183</v>
       </c>
       <c r="C13" t="s">
@@ -5352,7 +5517,7 @@
       <c r="A14">
         <v>107</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>246</v>
       </c>
       <c r="C14" t="s">
@@ -5393,7 +5558,7 @@
       <c r="A15">
         <v>107</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>246</v>
       </c>
       <c r="C15" t="s">
@@ -5434,7 +5599,7 @@
       <c r="A16">
         <v>104</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>183</v>
       </c>
       <c r="C16" t="s">
@@ -5489,7 +5654,7 @@
       <c r="A17">
         <v>104</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>183</v>
       </c>
       <c r="C17" t="s">
@@ -5544,7 +5709,7 @@
       <c r="A18">
         <v>104</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>183</v>
       </c>
       <c r="C18" t="s">
@@ -5599,7 +5764,7 @@
       <c r="A19">
         <v>102</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>181</v>
       </c>
       <c r="C19" t="s">
@@ -5640,7 +5805,7 @@
       <c r="A20">
         <v>102</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>181</v>
       </c>
       <c r="C20" t="s">
@@ -5681,7 +5846,7 @@
       <c r="A21">
         <v>104</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>183</v>
       </c>
       <c r="C21" t="s">
@@ -5722,7 +5887,7 @@
       <c r="A22">
         <v>107</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>246</v>
       </c>
       <c r="C22" t="s">
@@ -5763,7 +5928,7 @@
       <c r="A23">
         <v>107</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>246</v>
       </c>
       <c r="C23" t="s">
@@ -5804,7 +5969,7 @@
       <c r="A24">
         <v>104</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>183</v>
       </c>
       <c r="C24" t="s">
@@ -5845,7 +6010,7 @@
       <c r="A25">
         <v>104</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>183</v>
       </c>
       <c r="C25" t="s">
@@ -5886,7 +6051,7 @@
       <c r="A26">
         <v>104</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>183</v>
       </c>
       <c r="C26" t="s">
@@ -5927,7 +6092,7 @@
       <c r="A27">
         <v>107</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>246</v>
       </c>
       <c r="C27" t="s">
@@ -5975,7 +6140,7 @@
       <c r="A28">
         <v>107</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>246</v>
       </c>
       <c r="C28" t="s">
@@ -6023,7 +6188,7 @@
       <c r="A29">
         <v>104</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
       <c r="C29" t="s">
@@ -6070,7 +6235,7 @@
         <v>Insert into culturaOperacaoFatorProducao (operacaofatorproducao,cultura) values (28,22);</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ref="Q27:Q31" si="13">"insert into Operacao"&amp;L29&amp;" (id,modo) values ("&amp;K29&amp;",(select id from modo where modo like '"&amp;D29&amp;"'));"</f>
+        <f t="shared" ref="Q29:Q31" si="13">"insert into Operacao"&amp;L29&amp;" (id,modo) values ("&amp;K29&amp;",(select id from modo where modo like '"&amp;D29&amp;"'));"</f>
         <v>insert into OperacaoFertilizacao (id,modo) values (28,(select id from modo where modo like 'Solo'));</v>
       </c>
     </row>
@@ -6078,7 +6243,7 @@
       <c r="A30">
         <v>104</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>183</v>
       </c>
       <c r="C30" t="s">
@@ -6133,7 +6298,7 @@
       <c r="A31">
         <v>104</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>183</v>
       </c>
       <c r="C31" t="s">
@@ -6188,7 +6353,7 @@
       <c r="A32">
         <v>102</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>181</v>
       </c>
       <c r="C32" t="s">
@@ -6229,7 +6394,7 @@
       <c r="A33">
         <v>102</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>181</v>
       </c>
       <c r="C33" t="s">
@@ -6270,7 +6435,7 @@
       <c r="A34">
         <v>107</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>246</v>
       </c>
       <c r="C34" t="s">
@@ -6311,7 +6476,7 @@
       <c r="A35">
         <v>107</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" t="s">
         <v>246</v>
       </c>
       <c r="C35" t="s">
@@ -6352,7 +6517,7 @@
       <c r="A36">
         <v>107</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s">
         <v>246</v>
       </c>
       <c r="C36" t="s">
@@ -6400,7 +6565,7 @@
       <c r="A37">
         <v>107</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" t="s">
         <v>246</v>
       </c>
       <c r="C37" t="s">
@@ -6448,7 +6613,7 @@
       <c r="A38">
         <v>106</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" t="s">
         <v>220</v>
       </c>
       <c r="C38" t="s">
@@ -6488,7 +6653,7 @@
       <c r="A39">
         <v>103</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s">
         <v>182</v>
       </c>
       <c r="C39" t="s">
@@ -6533,7 +6698,7 @@
       <c r="A40">
         <v>106</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" t="s">
         <v>220</v>
       </c>
       <c r="C40" t="s">
@@ -6574,7 +6739,7 @@
       <c r="A41">
         <v>106</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>220</v>
       </c>
       <c r="C41" t="s">
@@ -6615,7 +6780,7 @@
       <c r="A42">
         <v>106</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" t="s">
         <v>220</v>
       </c>
       <c r="C42" t="s">
@@ -6655,7 +6820,7 @@
       <c r="A43">
         <v>103</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" t="s">
         <v>182</v>
       </c>
       <c r="C43" t="s">
@@ -6696,7 +6861,7 @@
       <c r="A44">
         <v>106</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s">
         <v>220</v>
       </c>
       <c r="C44" t="s">
@@ -6737,7 +6902,7 @@
       <c r="A45">
         <v>106</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s">
         <v>220</v>
       </c>
       <c r="C45" t="s">
@@ -6778,7 +6943,7 @@
       <c r="A46">
         <v>106</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" t="s">
         <v>220</v>
       </c>
       <c r="C46" t="s">
@@ -6818,7 +6983,7 @@
       <c r="A47">
         <v>101</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" t="s">
         <v>179</v>
       </c>
       <c r="C47" t="s">
@@ -6858,7 +7023,7 @@
       <c r="A48">
         <v>102</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" t="s">
         <v>181</v>
       </c>
       <c r="C48" t="s">
@@ -6899,7 +7064,7 @@
       <c r="A49">
         <v>102</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s">
         <v>181</v>
       </c>
       <c r="C49" t="s">
@@ -6940,7 +7105,7 @@
       <c r="A50">
         <v>106</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" t="s">
         <v>220</v>
       </c>
       <c r="C50" t="s">
@@ -6981,7 +7146,7 @@
       <c r="A51">
         <v>104</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>183</v>
       </c>
       <c r="C51" t="s">
@@ -7022,7 +7187,7 @@
       <c r="A52">
         <v>104</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>183</v>
       </c>
       <c r="C52" t="s">
@@ -7063,7 +7228,7 @@
       <c r="A53">
         <v>102</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" t="s">
         <v>181</v>
       </c>
       <c r="C53" t="s">
@@ -7118,7 +7283,7 @@
       <c r="A54">
         <v>102</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" t="s">
         <v>181</v>
       </c>
       <c r="C54" t="s">
@@ -7173,7 +7338,7 @@
       <c r="A55">
         <v>104</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" t="s">
         <v>183</v>
       </c>
       <c r="C55" t="s">
@@ -7214,7 +7379,7 @@
       <c r="A56">
         <v>104</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s">
         <v>183</v>
       </c>
       <c r="C56" t="s">
@@ -7255,7 +7420,7 @@
       <c r="A57">
         <v>107</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" t="s">
         <v>246</v>
       </c>
       <c r="C57" t="s">
@@ -7296,7 +7461,7 @@
       <c r="A58">
         <v>106</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" t="s">
         <v>220</v>
       </c>
       <c r="C58" t="s">
@@ -7337,7 +7502,7 @@
       <c r="A59">
         <v>107</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s">
         <v>246</v>
       </c>
       <c r="C59" t="s">
@@ -7378,7 +7543,7 @@
       <c r="A60">
         <v>106</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s">
         <v>220</v>
       </c>
       <c r="C60" t="s">
@@ -7419,7 +7584,7 @@
       <c r="A61">
         <v>107</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s">
         <v>246</v>
       </c>
       <c r="C61" t="s">
@@ -7467,7 +7632,7 @@
       <c r="A62">
         <v>107</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" t="s">
         <v>246</v>
       </c>
       <c r="C62" t="s">
@@ -7515,7 +7680,7 @@
       <c r="A63">
         <v>106</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>220</v>
       </c>
       <c r="C63" t="s">
@@ -7555,7 +7720,7 @@
       <c r="A64">
         <v>103</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>182</v>
       </c>
       <c r="C64" t="s">
@@ -7596,7 +7761,7 @@
       <c r="A65">
         <v>101</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
         <v>179</v>
       </c>
       <c r="C65" t="s">
@@ -7637,7 +7802,7 @@
       <c r="A66">
         <v>101</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" t="s">
         <v>179</v>
       </c>
       <c r="C66" t="s">
@@ -7677,7 +7842,7 @@
       <c r="A67">
         <v>104</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" t="s">
         <v>183</v>
       </c>
       <c r="C67" t="s">
@@ -7732,7 +7897,7 @@
       <c r="A68">
         <v>104</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" t="s">
         <v>183</v>
       </c>
       <c r="C68" t="s">
@@ -7787,7 +7952,7 @@
       <c r="A69">
         <v>104</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" t="s">
         <v>183</v>
       </c>
       <c r="C69" t="s">
@@ -7842,7 +8007,7 @@
       <c r="A70">
         <v>106</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s">
         <v>220</v>
       </c>
       <c r="C70" t="s">
@@ -7883,7 +8048,7 @@
       <c r="A71">
         <v>106</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s">
         <v>220</v>
       </c>
       <c r="C71" t="s">
@@ -7924,7 +8089,7 @@
       <c r="A72">
         <v>106</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" t="s">
         <v>220</v>
       </c>
       <c r="C72" t="s">
@@ -7964,7 +8129,7 @@
       <c r="A73">
         <v>107</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" t="s">
         <v>246</v>
       </c>
       <c r="C73" t="s">
@@ -8005,7 +8170,7 @@
       <c r="A74">
         <v>107</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" t="s">
         <v>246</v>
       </c>
       <c r="C74" t="s">
@@ -8046,7 +8211,7 @@
       <c r="A75">
         <v>101</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" t="s">
         <v>179</v>
       </c>
       <c r="C75" t="s">
@@ -8087,7 +8252,7 @@
       <c r="A76">
         <v>104</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" t="s">
         <v>183</v>
       </c>
       <c r="C76" t="s">
@@ -8128,7 +8293,7 @@
       <c r="A77">
         <v>103</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" t="s">
         <v>182</v>
       </c>
       <c r="C77" t="s">
@@ -8169,7 +8334,7 @@
       <c r="A78">
         <v>106</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s">
         <v>220</v>
       </c>
       <c r="C78" t="s">
@@ -8210,7 +8375,7 @@
       <c r="A79">
         <v>104</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" t="s">
         <v>183</v>
       </c>
       <c r="C79" t="s">
@@ -8251,7 +8416,7 @@
       <c r="A80">
         <v>106</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" t="s">
         <v>220</v>
       </c>
       <c r="C80" t="s">
@@ -8292,7 +8457,7 @@
       <c r="A81">
         <v>104</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" t="s">
         <v>183</v>
       </c>
       <c r="C81" t="s">
@@ -8333,7 +8498,7 @@
       <c r="A82">
         <v>106</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" t="s">
         <v>220</v>
       </c>
       <c r="C82" t="s">
@@ -8373,7 +8538,7 @@
       <c r="A83">
         <v>104</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" t="s">
         <v>183</v>
       </c>
       <c r="C83" t="s">
@@ -8414,7 +8579,7 @@
       <c r="A84">
         <v>104</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" t="s">
         <v>183</v>
       </c>
       <c r="C84" t="s">
@@ -8455,7 +8620,7 @@
       <c r="A85">
         <v>104</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" t="s">
         <v>183</v>
       </c>
       <c r="C85" t="s">
@@ -8496,7 +8661,7 @@
       <c r="A86">
         <v>102</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" t="s">
         <v>181</v>
       </c>
       <c r="C86" t="s">
@@ -8537,7 +8702,7 @@
       <c r="A87">
         <v>102</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" t="s">
         <v>181</v>
       </c>
       <c r="C87" t="s">
@@ -8578,7 +8743,7 @@
       <c r="A88">
         <v>106</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" t="s">
         <v>220</v>
       </c>
       <c r="C88" t="s">
@@ -8619,7 +8784,7 @@
       <c r="A89">
         <v>102</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" t="s">
         <v>181</v>
       </c>
       <c r="C89" t="s">
@@ -8660,7 +8825,7 @@
       <c r="A90">
         <v>102</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" t="s">
         <v>181</v>
       </c>
       <c r="C90" t="s">
@@ -8701,7 +8866,7 @@
       <c r="A91">
         <v>104</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" t="s">
         <v>183</v>
       </c>
       <c r="C91" t="s">
@@ -8742,7 +8907,7 @@
       <c r="A92">
         <v>104</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" t="s">
         <v>183</v>
       </c>
       <c r="C92" t="s">
@@ -8783,7 +8948,7 @@
       <c r="A93">
         <v>107</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" t="s">
         <v>246</v>
       </c>
       <c r="C93" t="s">
@@ -8824,7 +8989,7 @@
       <c r="A94">
         <v>104</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" t="s">
         <v>183</v>
       </c>
       <c r="C94" t="s">
@@ -8865,7 +9030,7 @@
       <c r="A95">
         <v>106</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" t="s">
         <v>220</v>
       </c>
       <c r="C95" t="s">
@@ -8906,7 +9071,7 @@
       <c r="A96">
         <v>107</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" t="s">
         <v>246</v>
       </c>
       <c r="C96" t="s">
@@ -8947,7 +9112,7 @@
       <c r="A97">
         <v>106</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" t="s">
         <v>220</v>
       </c>
       <c r="C97" t="s">
@@ -8988,7 +9153,7 @@
       <c r="A98">
         <v>107</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" t="s">
         <v>246</v>
       </c>
       <c r="C98" t="s">
@@ -9036,7 +9201,7 @@
       <c r="A99">
         <v>107</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" t="s">
         <v>246</v>
       </c>
       <c r="C99" t="s">
@@ -9084,7 +9249,7 @@
       <c r="A100">
         <v>106</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" t="s">
         <v>220</v>
       </c>
       <c r="C100" t="s">
@@ -9124,7 +9289,7 @@
       <c r="A101">
         <v>103</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" t="s">
         <v>182</v>
       </c>
       <c r="C101" t="s">
@@ -9165,7 +9330,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" t="s">
         <v>179</v>
       </c>
       <c r="C102" t="s">
@@ -9206,7 +9371,7 @@
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" t="s">
         <v>179</v>
       </c>
       <c r="C103" t="s">
@@ -9246,7 +9411,7 @@
       <c r="A104">
         <v>106</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s">
         <v>220</v>
       </c>
       <c r="C104" t="s">
@@ -9287,7 +9452,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" t="s">
         <v>183</v>
       </c>
       <c r="C105" t="s">
@@ -9342,7 +9507,7 @@
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" t="s">
         <v>183</v>
       </c>
       <c r="C106" t="s">
@@ -9397,7 +9562,7 @@
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" t="s">
         <v>183</v>
       </c>
       <c r="C107" t="s">
@@ -9452,7 +9617,7 @@
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" t="s">
         <v>220</v>
       </c>
       <c r="C108" t="s">
@@ -9493,7 +9658,7 @@
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" t="s">
         <v>220</v>
       </c>
       <c r="C109" t="s">
@@ -9533,7 +9698,7 @@
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" t="s">
         <v>246</v>
       </c>
       <c r="C110" t="s">
@@ -9574,7 +9739,7 @@
       <c r="A111">
         <v>107</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" t="s">
         <v>246</v>
       </c>
       <c r="C111" t="s">
@@ -9615,7 +9780,7 @@
       <c r="A112">
         <v>107</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" t="s">
         <v>246</v>
       </c>
       <c r="C112" t="s">
@@ -9656,7 +9821,7 @@
       <c r="A113">
         <v>107</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" t="s">
         <v>246</v>
       </c>
       <c r="C113" t="s">
@@ -9697,7 +9862,7 @@
       <c r="A114">
         <v>101</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" t="s">
         <v>179</v>
       </c>
       <c r="C114" t="s">
@@ -9738,7 +9903,7 @@
       <c r="A115">
         <v>103</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" t="s">
         <v>182</v>
       </c>
       <c r="C115" t="s">
@@ -9779,7 +9944,7 @@
       <c r="A116">
         <v>104</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" t="s">
         <v>183</v>
       </c>
       <c r="C116" t="s">
@@ -9820,7 +9985,7 @@
       <c r="A117">
         <v>106</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" t="s">
         <v>220</v>
       </c>
       <c r="C117" t="s">
@@ -9861,7 +10026,7 @@
       <c r="A118">
         <v>106</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" t="s">
         <v>220</v>
       </c>
       <c r="C118" t="s">
@@ -9902,7 +10067,7 @@
       <c r="A119">
         <v>104</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" t="s">
         <v>183</v>
       </c>
       <c r="C119" t="s">
@@ -9943,7 +10108,7 @@
       <c r="A120">
         <v>104</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" t="s">
         <v>183</v>
       </c>
       <c r="C120" t="s">
@@ -9984,7 +10149,7 @@
       <c r="A121">
         <v>104</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" t="s">
         <v>183</v>
       </c>
       <c r="C121" t="s">
@@ -10025,7 +10190,7 @@
       <c r="A122">
         <v>106</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" t="s">
         <v>220</v>
       </c>
       <c r="C122" t="s">
@@ -10065,7 +10230,7 @@
       <c r="A123">
         <v>104</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" t="s">
         <v>183</v>
       </c>
       <c r="C123" t="s">
@@ -10106,7 +10271,7 @@
       <c r="A124">
         <v>104</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" t="s">
         <v>183</v>
       </c>
       <c r="C124" t="s">
@@ -10147,7 +10312,7 @@
       <c r="A125">
         <v>102</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" t="s">
         <v>181</v>
       </c>
       <c r="C125" t="s">
@@ -10188,7 +10353,7 @@
       <c r="A126">
         <v>102</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" t="s">
         <v>181</v>
       </c>
       <c r="C126" t="s">
@@ -10229,7 +10394,7 @@
       <c r="A127">
         <v>102</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" t="s">
         <v>181</v>
       </c>
       <c r="C127" t="s">
@@ -10270,7 +10435,7 @@
       <c r="A128">
         <v>102</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" t="s">
         <v>181</v>
       </c>
       <c r="C128" t="s">
@@ -10311,7 +10476,7 @@
       <c r="A129">
         <v>106</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" t="s">
         <v>220</v>
       </c>
       <c r="C129" t="s">
@@ -10352,7 +10517,7 @@
       <c r="A130">
         <v>104</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" t="s">
         <v>183</v>
       </c>
       <c r="C130" t="s">
@@ -10393,7 +10558,7 @@
       <c r="A131">
         <v>104</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" t="s">
         <v>183</v>
       </c>
       <c r="C131" t="s">
@@ -10434,7 +10599,7 @@
       <c r="A132">
         <v>102</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" t="s">
         <v>181</v>
       </c>
       <c r="C132" t="s">
@@ -10489,7 +10654,7 @@
       <c r="A133">
         <v>102</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" t="s">
         <v>181</v>
       </c>
       <c r="C133" t="s">
@@ -10544,7 +10709,7 @@
       <c r="A134">
         <v>107</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" t="s">
         <v>246</v>
       </c>
       <c r="C134" t="s">
@@ -10585,7 +10750,7 @@
       <c r="A135">
         <v>106</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" t="s">
         <v>220</v>
       </c>
       <c r="C135" t="s">
@@ -10626,7 +10791,7 @@
       <c r="A136">
         <v>107</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" t="s">
         <v>246</v>
       </c>
       <c r="C136" t="s">
@@ -10667,7 +10832,7 @@
       <c r="A137">
         <v>104</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" t="s">
         <v>183</v>
       </c>
       <c r="C137" t="s">
@@ -10708,7 +10873,7 @@
       <c r="A138">
         <v>106</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" t="s">
         <v>220</v>
       </c>
       <c r="C138" t="s">
@@ -10749,7 +10914,7 @@
       <c r="A139">
         <v>107</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" t="s">
         <v>246</v>
       </c>
       <c r="C139" t="s">
@@ -10797,7 +10962,7 @@
       <c r="A140">
         <v>107</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" t="s">
         <v>246</v>
       </c>
       <c r="C140" t="s">
@@ -10845,7 +11010,7 @@
       <c r="A141">
         <v>103</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" t="s">
         <v>182</v>
       </c>
       <c r="C141" t="s">
@@ -10899,21 +11064,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F6ACCA1C4E9E429EC0979D7AA69E5C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae8745856df04360dd1be451017c997c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caec8013-4252-46d5-9263-a99cc59dead2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5f7786c0b3d9081a77d0462e727a0e9" ns2:_="">
     <xsd:import namespace="caec8013-4252-46d5-9263-a99cc59dead2"/>
@@ -11051,31 +11201,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="caec8013-4252-46d5-9263-a99cc59dead2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C42AE87-F6E1-4C18-815A-DDBC6D0FAC4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11091,4 +11232,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="caec8013-4252-46d5-9263-a99cc59dead2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>